--- a/helpers/upfileExcel/export21446.xlsx
+++ b/helpers/upfileExcel/export21446.xlsx
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
